--- a/data/trans_bre/P17A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P17A_R-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>15,96%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 11,68</t>
+          <t>-1,44; 17,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 18,04</t>
+          <t>-4,89; 5,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 129,87</t>
+          <t>-21,91; 334,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-77,08; 385,16</t>
+          <t>-79,97; 558,69</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>67,47%</t>
+          <t>157,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>146,19%</t>
+          <t>155,59%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,42</t>
+          <t>2,59; 10,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 21,58</t>
+          <t>-0,14; 4,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,91; 134,01</t>
+          <t>35,13; 408,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 889,58</t>
+          <t>-34,21; 923,21</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>51,97%</t>
+          <t>37,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>416,29%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 6,73</t>
+          <t>-2,75; 7,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 9,71</t>
+          <t>0,14; 3,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 162,28</t>
+          <t>-31,09; 171,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-97,35; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>60,99%</t>
+          <t>-13,8%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 7,03</t>
+          <t>0,91; 7,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 12,17</t>
+          <t>-3,72; 1,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,97; 110,99</t>
+          <t>8,41; 108,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 271,87</t>
+          <t>-76,16; 122,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,75</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62,76%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>38,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 6,96</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 1,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 110,77</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-31,0; 155,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P17A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P17A_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>86,35%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,96%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.940925799896885</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.013930688780198</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.8634643170456242</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.05829467758789391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 17,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 5,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-21,91; 334,53</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-79,97; 558,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.442080273963649</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-20.22393217205276</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2190869922820595</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.8190401718162389</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.99603682973299</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.53481303212783</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>3.345281562623112</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>3.482347992002565</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,65</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>157,34%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>155,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 10,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 4,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>35,13; 408,72</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-34,21; 923,21</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.652095343626319</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.90216562098604</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.573357486706545</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.621249456098873</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>37,14%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>416,29%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.586780114663188</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.3395085934920266</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.3512647444111079</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1897628379237864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 7,37</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 3,46</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-31,09; 171,81</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.64870664253403</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.97212041152581</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>4.087155212431616</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>9.66595726545687</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,135 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>51,38%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-13,8%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.488664250235978</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.492158640171922</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.3714257541610688</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>5.842676788588732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 7,47</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 1,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>8,41; 108,03</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-76,16; 122,75</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.748949105952392</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.711407276993067</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.3109492041635871</v>
+      </c>
+      <c r="F11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.365668035505109</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.98932742058332</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.718085646988044</v>
+      </c>
+      <c r="F12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,75</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>62,76%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>38,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 6,96</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 1,96</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>26,99; 110,77</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-31,0; 155,87</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.4314211091446</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.928320235089558</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.9162488735618806</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.413949775898595</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.127258413687825</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.167807963053741</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.2756545041873044</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.1548989775490459</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.932041390329168</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.90033195670445</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>2.086748492520281</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>5.142664802099066</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
